--- a/June2021/29.06.2021/Bank Statement.xlsx
+++ b/June2021/29.06.2021/Bank Statement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20055" windowHeight="7905" tabRatio="742" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="G. Cost" sheetId="45" r:id="rId1"/>
@@ -3455,28 +3455,28 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4316,48 +4316,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="342" t="s">
+      <c r="A1" s="340" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="342"/>
-      <c r="C1" s="342"/>
-      <c r="D1" s="342"/>
-      <c r="E1" s="342"/>
-      <c r="F1" s="342"/>
-      <c r="G1" s="342"/>
-      <c r="H1" s="342"/>
-      <c r="I1" s="342"/>
-      <c r="J1" s="342"/>
-      <c r="K1" s="342"/>
-      <c r="L1" s="342"/>
-      <c r="M1" s="342"/>
-      <c r="N1" s="342"/>
-      <c r="O1" s="342"/>
-      <c r="P1" s="342"/>
-      <c r="Q1" s="342"/>
-      <c r="R1" s="342"/>
+      <c r="B1" s="340"/>
+      <c r="C1" s="340"/>
+      <c r="D1" s="340"/>
+      <c r="E1" s="340"/>
+      <c r="F1" s="340"/>
+      <c r="G1" s="340"/>
+      <c r="H1" s="340"/>
+      <c r="I1" s="340"/>
+      <c r="J1" s="340"/>
+      <c r="K1" s="340"/>
+      <c r="L1" s="340"/>
+      <c r="M1" s="340"/>
+      <c r="N1" s="340"/>
+      <c r="O1" s="340"/>
+      <c r="P1" s="340"/>
+      <c r="Q1" s="340"/>
+      <c r="R1" s="340"/>
     </row>
     <row r="2" spans="1:25" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="343" t="s">
+      <c r="A2" s="341" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="343"/>
-      <c r="C2" s="343"/>
-      <c r="D2" s="343"/>
-      <c r="E2" s="343"/>
-      <c r="F2" s="343"/>
-      <c r="G2" s="343"/>
-      <c r="H2" s="343"/>
-      <c r="I2" s="343"/>
-      <c r="J2" s="343"/>
-      <c r="K2" s="343"/>
-      <c r="L2" s="343"/>
-      <c r="M2" s="343"/>
-      <c r="N2" s="343"/>
-      <c r="O2" s="343"/>
-      <c r="P2" s="343"/>
-      <c r="Q2" s="343"/>
-      <c r="R2" s="343"/>
+      <c r="B2" s="341"/>
+      <c r="C2" s="341"/>
+      <c r="D2" s="341"/>
+      <c r="E2" s="341"/>
+      <c r="F2" s="341"/>
+      <c r="G2" s="341"/>
+      <c r="H2" s="341"/>
+      <c r="I2" s="341"/>
+      <c r="J2" s="341"/>
+      <c r="K2" s="341"/>
+      <c r="L2" s="341"/>
+      <c r="M2" s="341"/>
+      <c r="N2" s="341"/>
+      <c r="O2" s="341"/>
+      <c r="P2" s="341"/>
+      <c r="Q2" s="341"/>
+      <c r="R2" s="341"/>
     </row>
     <row r="3" spans="1:25" s="93" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="352" t="s">
@@ -4388,34 +4388,34 @@
       <c r="Y3" s="96"/>
     </row>
     <row r="4" spans="1:25" s="96" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="344" t="s">
+      <c r="A4" s="342" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="346" t="s">
+      <c r="B4" s="344" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="346" t="s">
+      <c r="C4" s="344" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="340" t="s">
+      <c r="D4" s="346" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="340" t="s">
+      <c r="E4" s="346" t="s">
         <v>162</v>
       </c>
-      <c r="F4" s="340" t="s">
+      <c r="F4" s="346" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="340" t="s">
+      <c r="G4" s="346" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="340" t="s">
+      <c r="H4" s="346" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="340" t="s">
+      <c r="I4" s="346" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="340" t="s">
+      <c r="J4" s="346" t="s">
         <v>26</v>
       </c>
       <c r="K4" s="355" t="s">
@@ -4449,16 +4449,16 @@
       <c r="X4" s="95"/>
     </row>
     <row r="5" spans="1:25" s="96" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="345"/>
-      <c r="B5" s="347"/>
-      <c r="C5" s="347"/>
-      <c r="D5" s="341"/>
-      <c r="E5" s="341"/>
-      <c r="F5" s="341"/>
-      <c r="G5" s="341"/>
-      <c r="H5" s="341"/>
-      <c r="I5" s="341"/>
-      <c r="J5" s="341"/>
+      <c r="A5" s="343"/>
+      <c r="B5" s="345"/>
+      <c r="C5" s="345"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="347"/>
+      <c r="H5" s="347"/>
+      <c r="I5" s="347"/>
+      <c r="J5" s="347"/>
       <c r="K5" s="356"/>
       <c r="L5" s="349"/>
       <c r="M5" s="358"/>
@@ -7507,10 +7507,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
@@ -7527,6 +7523,10 @@
     <mergeCell ref="Q4:Q5"/>
     <mergeCell ref="A3:R3"/>
     <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -9624,8 +9624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9800,7 +9800,7 @@
         <v>2</v>
       </c>
       <c r="F10" s="84">
-        <v>382833</v>
+        <v>325801</v>
       </c>
       <c r="G10" s="3"/>
       <c r="K10" s="126" t="s">
@@ -9865,7 +9865,7 @@
       <c r="H13" s="118"/>
       <c r="I13" s="21">
         <f>C17-F17</f>
-        <v>0</v>
+        <v>57032</v>
       </c>
       <c r="J13" s="118"/>
       <c r="K13" s="120" t="s">
@@ -9948,7 +9948,7 @@
       </c>
       <c r="F17" s="84">
         <f>F7+F8+F9+F10+F11+F12+F14-F13+F15</f>
-        <v>2017507.6854999997</v>
+        <v>1960475.6854999999</v>
       </c>
       <c r="G17" s="20"/>
       <c r="K17" s="120" t="s">
@@ -10186,7 +10186,7 @@
   </sheetPr>
   <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
@@ -16246,7 +16246,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16749,7 +16749,9 @@
       <c r="M17" s="142"/>
       <c r="N17" s="143"/>
       <c r="O17" s="143"/>
-      <c r="P17" s="143"/>
+      <c r="P17" s="143">
+        <v>25</v>
+      </c>
       <c r="Q17" s="148"/>
     </row>
     <row r="18" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
@@ -17060,7 +17062,7 @@
       </c>
       <c r="P28" s="174">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q28" s="175"/>
     </row>
